--- a/analysis/asf.xlsx
+++ b/analysis/asf.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Google_drive/00-ASF/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D2AF86-4831-9548-9A7C-57266FA542D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DBFB89-B1FF-4046-B6C9-6AA05B32F67E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{B643E73B-AAAD-2E41-B9F7-6804648B2669}"/>
   </bookViews>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2468C8F-E65B-7D40-B417-30615BF7E024}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -717,6 +717,9 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/asf.xlsx
+++ b/analysis/asf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DBFB89-B1FF-4046-B6C9-6AA05B32F67E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E39E1F-C85C-4742-9451-57ACBDCF6B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{B643E73B-AAAD-2E41-B9F7-6804648B2669}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -707,11 +707,12 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>2000</v>
+        <f>2000+25417</f>
+        <v>27417</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>62764</v>
+        <v>88181</v>
       </c>
       <c r="F13">
         <v>1</v>
